--- a/notion links.xlsx
+++ b/notion links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhay\Desktop\JavaScript\js notion links\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhay\Desktop\JavaScript\js notion links\Notion-links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9495D7A-D8FC-42C8-884B-BC2BCAC897BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7B102-DC1D-4E68-887B-E53E74B58553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Introduction to JS</t>
   </si>
@@ -99,6 +99,23 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scrawny-gouda-144.notion.site/Introduction-to-DOM-12140291d9e94461886732b975092254 </t>
+  </si>
+  <si>
+    <t>Introduction to DOM</t>
+  </si>
+  <si>
+    <t>Accessing Dom Elements
+Looping over list of elements
+Grab Children/Parent Node(s)
+Create new DOM Elements
+Get/Set text to elements
+Rendering HTML inside elements
+Add Elements to the DOM
+Add/Remove/Toggle/Check Classes
+Event Capturing vs Bubbling</t>
   </si>
 </sst>
 </file>
@@ -174,12 +191,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -193,6 +210,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -559,14 +585,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>45286</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{E08ADCA8-B28F-496C-94E8-14499285D8CE}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{563A44C7-D155-4C7E-A7D6-407840DAD9EC}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{E270D73D-5595-4300-85E7-B1FC90C6385C}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{E5C81BCE-FF3B-4616-B30B-3143BF369588}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{F302354F-0EF6-40DF-A064-FE8985B77693}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/notion links.xlsx
+++ b/notion links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhay\Desktop\JavaScript\js notion links\Notion-links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7B102-DC1D-4E68-887B-E53E74B58553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254E165B-CE51-4556-82B1-4E0156B40ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Introduction to JS</t>
   </si>
@@ -116,6 +116,19 @@
 Add Elements to the DOM
 Add/Remove/Toggle/Check Classes
 Event Capturing vs Bubbling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://scrawny-gouda-144.notion.site/Local-Storage-f9d9067735db4ca99ddf401b72061b26 </t>
+  </si>
+  <si>
+    <t>Local Storage</t>
+  </si>
+  <si>
+    <t>Syntax 
+Get Item
+Limitations about storing arrays
+Difference between JSON and objects ?
+Delete all the keys</t>
   </si>
 </sst>
 </file>
@@ -191,7 +204,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,9 +223,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -502,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,17 +596,31 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>45286</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>45287</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -606,8 +630,9 @@
     <hyperlink ref="D4" r:id="rId3" xr:uid="{E270D73D-5595-4300-85E7-B1FC90C6385C}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{E5C81BCE-FF3B-4616-B30B-3143BF369588}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{F302354F-0EF6-40DF-A064-FE8985B77693}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{BC8F4AED-1B1B-4920-A4B2-D485ECCA5BE0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/notion links.xlsx
+++ b/notion links.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhay\Desktop\JavaScript\js notion links\Notion-links\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254E165B-CE51-4556-82B1-4E0156B40ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1074239B-9E68-4740-A7FE-C7216B412D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Introduction to JS</t>
   </si>
@@ -129,6 +129,12 @@
 Limitations about storing arrays
 Difference between JSON and objects ?
 Delete all the keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tc Questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://vivmagarwal.notion.site/TC-401-Session-2-ba9d825e64d14f86912aa5851c539373 </t>
   </si>
 </sst>
 </file>
@@ -176,7 +182,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -199,12 +205,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,6 +261,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,100 +580,115 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:4" s="7" customFormat="1" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>45279</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>45280</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
+        <v>45280</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>45281</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
+    <row r="7" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
         <v>45286</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+    <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
         <v>45287</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{E08ADCA8-B28F-496C-94E8-14499285D8CE}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{563A44C7-D155-4C7E-A7D6-407840DAD9EC}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{E270D73D-5595-4300-85E7-B1FC90C6385C}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{E5C81BCE-FF3B-4616-B30B-3143BF369588}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{F302354F-0EF6-40DF-A064-FE8985B77693}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{BC8F4AED-1B1B-4920-A4B2-D485ECCA5BE0}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{E08ADCA8-B28F-496C-94E8-14499285D8CE}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{563A44C7-D155-4C7E-A7D6-407840DAD9EC}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{E270D73D-5595-4300-85E7-B1FC90C6385C}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{E5C81BCE-FF3B-4616-B30B-3143BF369588}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{F302354F-0EF6-40DF-A064-FE8985B77693}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{BC8F4AED-1B1B-4920-A4B2-D485ECCA5BE0}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{3453DEAE-88E7-4F06-8C02-9F9467D2A4CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>